--- a/medicine/Psychotrope/Chaume_(AOC)/Chaume_(AOC).xlsx
+++ b/medicine/Psychotrope/Chaume_(AOC)/Chaume_(AOC).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le chaume est un vin blanc liquoreux produit sur la commune de Rochefort-sur-Loire, au bord du Layon en Maine-et-Loire. Il s'agit d'une dénomination géographique au cœur de l'appellation Coteaux-du-layon, faisant partie du vignoble de la vallée de la Loire.
@@ -516,21 +528,23 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antiquité
-Moyen Âge
-Période moderne
-Période contemporaine
-Ce vin a déjà une histoire tourmentée.
-Le décret du 19 septembre 2003 instituant l'appellation « Chaume suivi de la mention Premier cru des Coteaux-du-layon » a été annulé par le Conseil d'État par une décision[4] du 27 juillet 2005 car il a été considéré que l'appellation Chaume - premier cru des coteaux du Layon « permet à cette nouvelle appellation de bénéficier de la notoriété du quarts-de-chaume tout en profitant exclusivement de la mention « premier cru » [et], qu'ainsi, l'appellation Chaume - premier cru des coteaux du Layon [était] de nature à susciter une confusion dans l'esprit du consommateur, à créer l'apparence d'une hiérarchisation des vins favorable à la nouvelle appellation et, par conséquent, à détourner ou affaiblir la notoriété de l'appellation Quarts-de-Chaume».
+          <t>Période contemporaine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce vin a déjà une histoire tourmentée.
+Le décret du 19 septembre 2003 instituant l'appellation « Chaume suivi de la mention Premier cru des Coteaux-du-layon » a été annulé par le Conseil d'État par une décision du 27 juillet 2005 car il a été considéré que l'appellation Chaume - premier cru des coteaux du Layon « permet à cette nouvelle appellation de bénéficier de la notoriété du quarts-de-chaume tout en profitant exclusivement de la mention « premier cru » [et], qu'ainsi, l'appellation Chaume - premier cru des coteaux du Layon [était] de nature à susciter une confusion dans l'esprit du consommateur, à créer l'apparence d'une hiérarchisation des vins favorable à la nouvelle appellation et, par conséquent, à détourner ou affaiblir la notoriété de l'appellation Quarts-de-Chaume».
 Un nouveau décret, en date du 21 février 2007, crée à nouveau l'appellation Chaume mais, cette fois-ci, suivie de la mention « Val de Loire ». Ce décret est modifié le 29 avril 2007 pour réduire le rendement à l'hectare.
 À noter
 Les décrets du 19 septembre 2003 et du 21 février 2007 abroge les dispositions du décret modifié du 18 février 1950 concernant l'appellation Coteaux-du-Layon Chaume.
-Le 30 mars 2009, ce dernier décret du 21 février 2007 est à nouveau annulé[5] par le Conseil d'État qui lui reproche d'affaiblir la notoriété de l'AOC Quarts-de-Chaume, surtout que les deux appellations sont sur la même commune (Rochefort-sur-Loire).
+Le 30 mars 2009, ce dernier décret du 21 février 2007 est à nouveau annulé par le Conseil d'État qui lui reproche d'affaiblir la notoriété de l'AOC Quarts-de-Chaume, surtout que les deux appellations sont sur la même commune (Rochefort-sur-Loire).
 Ainsi prend fin, pour le moment du moins, l'existence de l'AOC chaume. À partir du millésime 2009, les vins seront à nouveau produits sous l'AOC locale Coteaux-du-Layon Chaume.
-Afin de clarifier la position du Quarts-de-Chaume et offrir une solution, l'INAO, lors de sa réunion de septembre 2011 [6], a validé la hiérarchie suivante (de style bourguignon) :
+Afin de clarifier la position du Quarts-de-Chaume et offrir une solution, l'INAO, lors de sa réunion de septembre 2011 , a validé la hiérarchie suivante (de style bourguignon) :
 l' «AOC Quarts-de-Chaume » pourra être complétée de la mention « grand cru » ;
 on crée l' «AOC Coteaux-du-Layon premier cru » complétée de la dénomination géographique complémentaire « Chaume » .
-La publication au Journal Officiel a eu lieu le 24 novembre 2011[7].
+La publication au Journal Officiel a eu lieu le 24 novembre 2011.
 </t>
         </is>
       </c>
@@ -560,6 +574,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -585,12 +601,12 @@
           <t>Situation géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Ce vignoble, anciennement classé AOC, couvre une superficie de 70 hectares sur la commune de Rochefort-sur-Loire.
-Orographie
-Géologie
-Climatologie</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce vignoble, anciennement classé AOC, couvre une superficie de 70 hectares sur la commune de Rochefort-sur-Loire.
+</t>
         </is>
       </c>
     </row>
@@ -620,10 +636,15 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Présentation
-Ce vignoble, anciennement classé AOC, couvre une superficie de 70 hectares sur la commune de Rochefort-sur-Loire.
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce vignoble, anciennement classé AOC, couvre une superficie de 70 hectares sur la commune de Rochefort-sur-Loire.
 Ce vin est issu à 100 % du chenin et bénéficie de l'action de la pourriture noble (Botrytis cinerea) : le grain est récolté manuellement à surmaturité par tries successives. Sa robe est jaune soutenu à dorée.
-Le chaume peut se garder une dizaine d'années et beaucoup plus les bonnes années[8].
+Le chaume peut se garder une dizaine d'années et beaucoup plus les bonnes années.
 </t>
         </is>
       </c>
@@ -652,7 +673,9 @@
           <t>Voir</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Vignoble de la vallée de la Loire
 Bonnezeaux
